--- a/Blog-Skeleton/Blog.FunctionalUI.Tests/DataDrivenTests/LogInData.xlsx
+++ b/Blog-Skeleton/Blog.FunctionalUI.Tests/DataDrivenTests/LogInData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>AssertInvalidLoginFormEmailPasswordErrors</t>
+  </si>
+  <si>
+    <t>AssertValidLogin</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,19 +145,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,7 +464,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,91 +490,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
